--- a/포트폴리오/테이블 명세서/Tottenham 테이블 명세서 .xlsx
+++ b/포트폴리오/테이블 명세서/Tottenham 테이블 명세서 .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="153">
   <si>
     <t>player</t>
   </si>
@@ -22,371 +22,522 @@
     <t>키</t>
   </si>
   <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>선수 번호</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>int(11)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>back_num</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+  </si>
+  <si>
+    <t>나이</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>포지션</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>몸무게</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>선수 타입</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>패스워드</t>
+  </si>
+  <si>
+    <t>pw</t>
+  </si>
+  <si>
+    <t>varchar(13)</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>이메일</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>성별</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+  </si>
+  <si>
+    <t>'M'</t>
+  </si>
+  <si>
+    <t>지휘권</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>'USER'</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>writer</t>
+  </si>
+  <si>
+    <t>게시글 번호</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>longtext</t>
+  </si>
+  <si>
+    <t>최초 등록일자</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>수정 등록일자</t>
+  </si>
+  <si>
+    <t>modify_registered</t>
+  </si>
+  <si>
+    <t>파일첨부</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>조회수</t>
+  </si>
+  <si>
+    <t>views</t>
+  </si>
+  <si>
+    <t>'0'</t>
+  </si>
+  <si>
+    <t>게시물 삭제여부</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>'I'</t>
+  </si>
+  <si>
+    <t>board_num</t>
+  </si>
+  <si>
+    <t>파일번호</t>
+  </si>
+  <si>
+    <t>상태</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>댓글 번호</t>
+  </si>
+  <si>
+    <t>스탯 번호</t>
+  </si>
+  <si>
+    <t>경기 시간수</t>
+  </si>
+  <si>
+    <t>minutes_played</t>
+  </si>
+  <si>
+    <t>골</t>
+  </si>
+  <si>
+    <t>goal_scored</t>
+  </si>
+  <si>
+    <t>어시스트</t>
+  </si>
+  <si>
+    <t>assists</t>
+  </si>
+  <si>
+    <t>클리어 횟수</t>
+  </si>
+  <si>
+    <t>clearances</t>
+  </si>
+  <si>
+    <t>가로챈 횟수</t>
+  </si>
+  <si>
+    <t>interceptions</t>
+  </si>
+  <si>
+    <t>태클 횟수</t>
+  </si>
+  <si>
+    <t>tackles</t>
+  </si>
+  <si>
+    <t>패스 횟수</t>
+  </si>
+  <si>
+    <t>passes</t>
+  </si>
+  <si>
+    <t>패스 성공 횟수</t>
+  </si>
+  <si>
+    <t>completed_passes</t>
+  </si>
+  <si>
+    <t>선수 포지션</t>
+  </si>
+  <si>
+    <t>player_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선수 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선수 등 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>league</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리그 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>득점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무승부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>득실차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시즌 리그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season_league</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시즌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골키퍼 클린시트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골키퍼 PK 선방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골키퍼 선방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_cleanseet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_pkclean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>논리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>물리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Null 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기본값</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>선수 번호</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>int(11)</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>back_num</t>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-  </si>
-  <si>
-    <t>나이</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>포지션</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>몸무게</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>선수 타입</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-  </si>
-  <si>
-    <t>유저 아이디</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
-    <t>패스워드</t>
-  </si>
-  <si>
-    <t>pw</t>
-  </si>
-  <si>
-    <t>varchar(13)</t>
-  </si>
-  <si>
-    <t>''</t>
-  </si>
-  <si>
-    <t>이메일</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>성별</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>varchar(1)</t>
-  </si>
-  <si>
-    <t>'M'</t>
-  </si>
-  <si>
-    <t>지휘권</t>
-  </si>
-  <si>
-    <t>authority</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>'USER'</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>writer</t>
-  </si>
-  <si>
-    <t>게시글 번호</t>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>내용</t>
-  </si>
-  <si>
-    <t>contents</t>
-  </si>
-  <si>
-    <t>longtext</t>
-  </si>
-  <si>
-    <t>최초 등록일자</t>
-  </si>
-  <si>
-    <t>registered</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>CURRENT_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>수정 등록일자</t>
-  </si>
-  <si>
-    <t>modify_registered</t>
-  </si>
-  <si>
-    <t>파일첨부</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>조회수</t>
-  </si>
-  <si>
-    <t>views</t>
-  </si>
-  <si>
-    <t>'0'</t>
-  </si>
-  <si>
-    <t>게시물 삭제여부</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>'I'</t>
-  </si>
-  <si>
-    <t>board_num</t>
-  </si>
-  <si>
-    <t>파일번호</t>
-  </si>
-  <si>
-    <t>상태</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>댓글 번호</t>
-  </si>
-  <si>
-    <t>스탯 번호</t>
-  </si>
-  <si>
-    <t>경기 시간수</t>
-  </si>
-  <si>
-    <t>minutes_played</t>
-  </si>
-  <si>
-    <t>골</t>
-  </si>
-  <si>
-    <t>goal_scored</t>
-  </si>
-  <si>
-    <t>어시스트</t>
-  </si>
-  <si>
-    <t>assists</t>
-  </si>
-  <si>
-    <t>클리어 횟수</t>
-  </si>
-  <si>
-    <t>clearances</t>
-  </si>
-  <si>
-    <t>가로챈 횟수</t>
-  </si>
-  <si>
-    <t>interceptions</t>
-  </si>
-  <si>
-    <t>태클 횟수</t>
-  </si>
-  <si>
-    <t>tackles</t>
-  </si>
-  <si>
-    <t>패스 횟수</t>
-  </si>
-  <si>
-    <t>passes</t>
-  </si>
-  <si>
-    <t>패스 성공 횟수</t>
-  </si>
-  <si>
-    <t>completed_passes</t>
-  </si>
-  <si>
-    <t>패스 성공률</t>
-  </si>
-  <si>
-    <t>accuracy_pass</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>선수 포지션</t>
-  </si>
-  <si>
-    <t>player_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선수 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선수 등 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI 허용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탯 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,22 +562,56 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -453,19 +638,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -542,9 +714,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -552,7 +733,18 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,38 +752,191 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -634,36 +979,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -694,26 +1009,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -784,16 +1079,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -814,26 +1099,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -844,121 +1109,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1314,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1329,77 +1484,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="A2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>5</v>
+      <c r="A3" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
+        <v>93</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1407,25 +1562,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1433,25 +1588,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1459,25 +1614,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1485,25 +1640,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1512,25 +1667,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1541,22 +1696,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1564,81 +1719,81 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>5</v>
+      <c r="A15" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1646,25 +1801,25 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1672,25 +1827,25 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1698,25 +1853,25 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1724,25 +1879,25 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1750,25 +1905,25 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1776,81 +1931,81 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="A23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="4"/>
+      <c r="A24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>5</v>
+      <c r="A25" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1858,25 +2013,25 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1884,25 +2039,25 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1910,25 +2065,25 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1936,25 +2091,25 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1962,25 +2117,25 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1988,25 +2143,25 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2014,25 +2169,25 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2040,25 +2195,25 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2066,81 +2221,81 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="7"/>
+      <c r="A36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="4"/>
+      <c r="A37" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>5</v>
+      <c r="A38" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2148,25 +2303,25 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2174,25 +2329,25 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2200,25 +2355,25 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2226,81 +2381,81 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="7"/>
+      <c r="A44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="4"/>
+      <c r="A45" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>5</v>
+      <c r="A46" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2308,25 +2463,25 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2334,25 +2489,25 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2360,25 +2515,25 @@
         <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2386,25 +2541,25 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2412,25 +2567,25 @@
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2438,25 +2593,25 @@
         <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2464,73 +2619,73 @@
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="7"/>
+      <c r="A55" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="4"/>
+      <c r="A56" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>5</v>
+      <c r="A57" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2538,25 +2693,25 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2564,25 +2719,25 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2590,25 +2745,25 @@
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2616,25 +2771,25 @@
         <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2642,25 +2797,25 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2668,25 +2823,25 @@
         <v>6</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2694,25 +2849,25 @@
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2720,25 +2875,25 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2746,25 +2901,25 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2772,25 +2927,25 @@
         <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2798,25 +2953,25 @@
         <v>11</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>9</v>
+        <v>94</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2824,42 +2979,446 @@
         <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>13</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>14</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>15</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="H77" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>4</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>5</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H82" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>7</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H83" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H84" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>9</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H86" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>11</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>9</v>
+      <c r="B87" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="A24:C24"/>
@@ -2867,99 +3426,69 @@
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:H3">
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="greaterThan">
-      <formula>"ALL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="greaterThan">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="greaterThan">
-      <formula>"ALL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThan">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D2">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="A1:D3">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="greaterThan">
       <formula>"ALL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D14">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="greaterThan">
+      <formula>"ALL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:D24">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="greaterThan">
+      <formula>"ALL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:D37">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="greaterThan">
+      <formula>"ALL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:D45">
     <cfRule type="cellIs" dxfId="18" priority="13" operator="greaterThan">
       <formula>"ALL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:H25">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
-      <formula>"ALL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:D24">
+  <conditionalFormatting sqref="A55:D56">
     <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
       <formula>"ALL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:H38">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
-      <formula>"ALL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:D37">
+  <conditionalFormatting sqref="A74:D75">
     <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>"ALL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:H46">
+  <conditionalFormatting sqref="A15:D15">
     <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>"ALL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="A25:D25">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
-      <formula>"A"</formula>
+      <formula>"ALL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:D45">
+  <conditionalFormatting sqref="A38:D38">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
       <formula>"ALL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:H57">
+  <conditionalFormatting sqref="A46:D46">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>"ALL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
+  <conditionalFormatting sqref="A57:D57">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
-      <formula>"A"</formula>
+      <formula>"ALL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:D56">
+  <conditionalFormatting sqref="A76:D76">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>"ALL"</formula>
     </cfRule>
